--- a/Ressources/Matrices.xlsx
+++ b/Ressources/Matrices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_1F250CBB5C9AD6D7F98DA79F1C411F4291579476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5AE8D1E-48B4-44F3-A623-12C2727AB550}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_1F250CBB5C9AD6D7F98DA79F1C411F4291579476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{162419D2-9E43-476C-9007-8A794D9CF5F9}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:8">

--- a/Ressources/Matrices.xlsx
+++ b/Ressources/Matrices.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28724"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_1F250CBB5C9AD6D7F98DA79F1C411F4291579476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{162419D2-9E43-476C-9007-8A794D9CF5F9}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_1F250CBB5C9AD6D7F98DA79F1C411F4291579476" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAA93A0-D95B-4A41-9EF6-7EA5411E51FB}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="28515" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>X</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>TAG</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.25</t>
   </si>
 </sst>
 </file>
@@ -454,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -508,8 +499,8 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
+      <c r="H2" s="4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -534,8 +525,8 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
+      <c r="H3" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -560,8 +551,8 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>8</v>
+      <c r="H4" s="4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -586,8 +577,8 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
+      <c r="H5" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -638,8 +629,8 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
+      <c r="H7" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -664,8 +655,8 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>8</v>
+      <c r="H8" s="4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -716,8 +707,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
+      <c r="H10" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -742,8 +733,8 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>9</v>
+      <c r="H11" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -768,8 +759,8 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>9</v>
+      <c r="H12" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -794,8 +785,8 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>9</v>
+      <c r="H13" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -820,8 +811,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>8</v>
+      <c r="H14" s="4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -846,8 +837,8 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
+      <c r="H15" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -872,8 +863,8 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>8</v>
+      <c r="H16" s="4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -924,8 +915,8 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>10</v>
+      <c r="H18" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -950,8 +941,8 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>10</v>
+      <c r="H19" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1028,8 +1019,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>10</v>
+      <c r="H22" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1080,8 +1071,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
+      <c r="H24" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1132,8 +1123,8 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
+      <c r="H26" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1158,8 +1149,8 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
+      <c r="H27" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1184,8 +1175,8 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>8</v>
+      <c r="H28" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1210,8 +1201,8 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>9</v>
+      <c r="H29" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1236,8 +1227,8 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
+      <c r="H30" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1262,8 +1253,8 @@
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
+      <c r="H31" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1288,8 +1279,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
+      <c r="H32" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1340,8 +1331,8 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
+      <c r="H34" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1366,8 +1357,8 @@
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>9</v>
+      <c r="H35" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1392,8 +1383,8 @@
       <c r="G36" s="3">
         <v>0</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
+      <c r="H36" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1470,8 +1461,8 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>10</v>
+      <c r="H39" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1496,8 +1487,8 @@
       <c r="G40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>8</v>
+      <c r="H40" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1548,8 +1539,8 @@
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
+      <c r="H42" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1574,8 +1565,8 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
+      <c r="H43" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1600,8 +1591,8 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="H44" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1626,8 +1617,8 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>9</v>
+      <c r="H45" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1652,8 +1643,8 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
+      <c r="H46" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1678,8 +1669,8 @@
       <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
+      <c r="H47" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1704,8 +1695,8 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="H48" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1756,8 +1747,8 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>9</v>
+      <c r="H50" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1782,8 +1773,8 @@
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>10</v>
+      <c r="H51" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1808,8 +1799,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1834,8 +1825,8 @@
       <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>9</v>
+      <c r="H53" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1860,8 +1851,8 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
+      <c r="H54" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1886,8 +1877,8 @@
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>10</v>
+      <c r="H55" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1912,8 +1903,8 @@
       <c r="G56" s="3">
         <v>0</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>8</v>
+      <c r="H56" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1964,8 +1955,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>9</v>
+      <c r="H58" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1990,8 +1981,8 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
+      <c r="H59" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2016,8 +2007,8 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
+      <c r="H60" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2042,8 +2033,8 @@
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>9</v>
+      <c r="H61" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2068,8 +2059,8 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2094,8 +2085,8 @@
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>10</v>
+      <c r="H63" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2120,8 +2111,8 @@
       <c r="G64" s="3">
         <v>0</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>8</v>
+      <c r="H64" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2172,8 +2163,8 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>9</v>
+      <c r="H66" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2198,8 +2189,8 @@
       <c r="G67" s="3">
         <v>1</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>10</v>
+      <c r="H67" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2224,8 +2215,8 @@
       <c r="G68" s="3">
         <v>0</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>9</v>
+      <c r="H68" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2328,8 +2319,8 @@
       <c r="G72" s="3">
         <v>0</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
+      <c r="H72" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2380,8 +2371,8 @@
       <c r="G74" s="3">
         <v>0</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>9</v>
+      <c r="H74" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2406,8 +2397,8 @@
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>10</v>
+      <c r="H75" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2432,8 +2423,8 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>9</v>
+      <c r="H76" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2458,8 +2449,8 @@
       <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>9</v>
+      <c r="H77" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2484,8 +2475,8 @@
       <c r="G78" s="3">
         <v>0</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>10</v>
+      <c r="H78" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2510,8 +2501,8 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>10</v>
+      <c r="H79" s="3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2536,8 +2527,8 @@
       <c r="G80" s="3">
         <v>0</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>8</v>
+      <c r="H80" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="81" spans="1:8">
